--- a/Client/Dev/PandaVillage/Assets/Tables/crop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/crop_data.xlsx
@@ -1,39 +1,314 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\SeoulITHongUniv\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6447E1-0A21-475E-9CCE-6EE9DC914D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="18390" xr2:uid="{ED043F1B-EDF1-4D1B-84C3-146A5506CC12}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8205" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>현</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수확하면</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사라짐
+그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>외</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>다시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자라나는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">일수
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>터치로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>수확
+그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>외</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: tool_id</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>현</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+None: 0
+Spring: 1
+Summer: 2
+Fall: 3
+Winter: 4</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,27 +318,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cropsname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>파스닙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜리플라워</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완두콩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>케일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸른 재즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튤립</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parsnip{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cauliflower{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greenBean{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kale{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potato{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blueJazz{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tulip{0}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>max_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>state_sprite_name</t>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>growth_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvest_tool_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regrowth_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recovery_stamina</t>
+  </si>
+  <si>
+    <t>recovery_hp</t>
+  </si>
+  <si>
+    <t>purchase_price_min</t>
+  </si>
+  <si>
+    <t>purchase_price_max</t>
+  </si>
+  <si>
+    <t>sale_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crop_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,19 +478,85 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -102,9 +567,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,7 +620,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -152,7 +632,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -199,23 +679,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -251,23 +714,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -419,49 +865,400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C188F604-B5BF-4610-AB86-FA43F031BDC2}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>11</v>
+      </c>
+      <c r="J3" s="1">
+        <v>105</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L3" s="1">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>75</v>
+      </c>
+      <c r="I4" s="1">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1">
+        <v>525</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>175</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>25</v>
+      </c>
+      <c r="I5" s="1">
+        <v>11</v>
+      </c>
+      <c r="J5" s="1">
+        <v>120</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="1">
+        <v>40</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>6004</v>
+      </c>
+      <c r="H6" s="1">
+        <v>50</v>
+      </c>
+      <c r="I6" s="1">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1">
+        <v>330</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="1">
+        <v>110</v>
+      </c>
+      <c r="M6" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>6</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>25</v>
+      </c>
+      <c r="I7" s="5">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1">
+        <v>240</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="1">
+        <v>80</v>
+      </c>
+      <c r="M7" s="2">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>150</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="1">
+        <v>50</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1">
+        <v>20</v>
+      </c>
+      <c r="J9" s="1">
+        <v>100</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="1">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Dev/PandaVillage/Assets/Tables/crop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/crop_data.xlsx
@@ -264,51 +264,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>현</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-None: 0
-Spring: 1
-Summer: 2
-Fall: 3
-Winter: 4</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,19 +375,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>recovery_stamina</t>
-  </si>
-  <si>
-    <t>recovery_hp</t>
-  </si>
-  <si>
-    <t>purchase_price_min</t>
-  </si>
-  <si>
-    <t>purchase_price_max</t>
-  </si>
-  <si>
-    <t>sale_price</t>
+    <t>crop_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain_gathering_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,27 +387,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crop_name</t>
+    <t>prefab_path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\CropObject\Spring\Parsnip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\CropObject\Spring\Greenbean</t>
+  </si>
+  <si>
+    <t>Prefabs\CropObject\Spring\Kale</t>
+  </si>
+  <si>
+    <t>Prefabs\CropObject\Spring\Potato</t>
+  </si>
+  <si>
+    <t>Prefabs\CropObject\Spring\Bluejazz</t>
+  </si>
+  <si>
+    <t>Prefabs\CropObject\Spring\Tulip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\CropObject\Spring\Cauliflower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -550,24 +511,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,9 +531,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -866,32 +813,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="18.75" customWidth="1"/>
-    <col min="4" max="4" width="11.25" customWidth="1"/>
-    <col min="5" max="5" width="11.375" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="11" width="19.625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -909,25 +859,13 @@
         <v>24</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -950,25 +888,13 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
@@ -990,26 +916,14 @@
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>25</v>
-      </c>
-      <c r="I3" s="1">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1">
-        <v>105</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L3" s="1">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2">
-        <v>1</v>
+      <c r="H3" s="2">
+        <v>3013</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2001</v>
       </c>
@@ -1031,26 +945,14 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
-        <v>75</v>
-      </c>
-      <c r="I4" s="1">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1">
-        <v>525</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L4" s="1">
-        <v>175</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
+      <c r="H4" s="2">
+        <v>3014</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2002</v>
       </c>
@@ -1072,26 +974,14 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="1">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1">
-        <v>120</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L5" s="1">
-        <v>40</v>
-      </c>
-      <c r="M5" s="2">
-        <v>1</v>
+      <c r="H5" s="2">
+        <v>3015</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2003</v>
       </c>
@@ -1113,26 +1003,14 @@
       <c r="G6" s="2">
         <v>6004</v>
       </c>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1">
-        <v>22</v>
-      </c>
-      <c r="J6" s="1">
-        <v>330</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L6" s="1">
-        <v>110</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1</v>
+      <c r="H6" s="2">
+        <v>3016</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2004</v>
       </c>
@@ -1154,26 +1032,14 @@
       <c r="G7" s="2">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
-        <v>25</v>
-      </c>
-      <c r="I7" s="5">
-        <v>11</v>
-      </c>
-      <c r="J7" s="1">
-        <v>240</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L7" s="1">
-        <v>80</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1</v>
+      <c r="H7" s="2">
+        <v>3017</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2005</v>
       </c>
@@ -1195,26 +1061,14 @@
       <c r="G8" s="2">
         <v>0</v>
       </c>
-      <c r="H8" s="1">
-        <v>45</v>
-      </c>
-      <c r="I8" s="1">
-        <v>20</v>
-      </c>
-      <c r="J8" s="1">
-        <v>150</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L8" s="1">
-        <v>50</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
+      <c r="H8" s="2">
+        <v>3018</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2006</v>
       </c>
@@ -1236,23 +1090,11 @@
       <c r="G9" s="2">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1">
-        <v>20</v>
-      </c>
-      <c r="J9" s="1">
-        <v>100</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1000</v>
-      </c>
-      <c r="L9" s="1">
-        <v>30</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1</v>
+      <c r="H9" s="2">
+        <v>3019</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/PandaVillage/Assets/Tables/crop_data.xlsx
+++ b/Client/Dev/PandaVillage/Assets/Tables/crop_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\PandaVillage\Client\Dev\PandaVillage\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -260,7 +260,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>: tool_id</t>
+          <t>: tool_type</t>
         </r>
       </text>
     </comment>
@@ -367,10 +367,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>harvest_tool_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>regrowth_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,6 +412,10 @@
   </si>
   <si>
     <t>Prefabs\CropObject\Spring\Cauliflower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harvest_tool_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +816,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>10</v>
@@ -853,16 +853,16 @@
         <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -888,10 +888,10 @@
         <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -905,7 +905,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
         <v>4</v>
@@ -920,7 +920,7 @@
         <v>3013</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -934,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>12</v>
@@ -949,7 +949,7 @@
         <v>3014</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -963,7 +963,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -978,7 +978,7 @@
         <v>3015</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -992,7 +992,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1">
         <v>6</v>
@@ -1001,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>6004</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2">
         <v>3016</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1021,7 +1021,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" s="1">
         <v>6</v>
@@ -1036,7 +1036,7 @@
         <v>3017</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -1050,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="1">
         <v>7</v>
@@ -1065,7 +1065,7 @@
         <v>3018</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1079,7 +1079,7 @@
         <v>17</v>
       </c>
       <c r="D9" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="1">
         <v>6</v>
@@ -1094,7 +1094,7 @@
         <v>3019</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
